--- a/StructureDefinition-ext-R5-AuditEvent.outcome.xlsx
+++ b/StructureDefinition-ext-R5-AuditEvent.outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -340,7 +340,7 @@
     <t>Indicates whether the event succeeded or failed.</t>
   </si>
   <si>
-    <t>when a code is given there must be one code from the given codeSystem. Element `AuditEvent.outcome.code` is mapped to FHIR R4 structure `AuditEvent`, but has no target element specified.</t>
+    <t>when a code is given there must be one code from the given codeSystem. Element `AuditEvent.outcome.code` is will have a context of AuditEvent.outcome based on following the parent source element upwards and mapping to `AuditEvent`.</t>
   </si>
   <si>
     <t>Extension.extension:code.id</t>
@@ -434,7 +434,7 @@
     <t>A human readable description of the error issue SHOULD be placed in details.text.</t>
   </si>
   <si>
-    <t>Element `AuditEvent.outcome.detail` is mapped to FHIR R4 structure `AuditEvent`, but has no target element specified.</t>
+    <t>Element `AuditEvent.outcome.detail` is will have a context of AuditEvent.outcome based on following the parent source element upwards and mapping to `AuditEvent`.</t>
   </si>
   <si>
     <t>Extension.extension:detail.id</t>
@@ -800,7 +800,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="155.30859375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="194.578125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-AuditEvent.outcome.xlsx
+++ b/StructureDefinition-ext-R5-AuditEvent.outcome.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="144">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `AuditEvent.outcome` 0..1 `code`
 *  R4: `AuditEvent.outcome` 0..1 `code`
 Following are the generation technical comments:
-Element `AuditEvent.outcome` is mapped to FHIR R4 element `AuditEvent.outcome`.</t>
+Element `AuditEvent.outcome` has is mapped to FHIR R4 element `AuditEvent.outcome`, but has no comparisons.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -340,7 +340,8 @@
     <t>Indicates whether the event succeeded or failed.</t>
   </si>
   <si>
-    <t>when a code is given there must be one code from the given codeSystem. Element `AuditEvent.outcome.code` is will have a context of AuditEvent.outcome based on following the parent source element upwards and mapping to `AuditEvent`.</t>
+    <t>when a code is given there must be one code from the given codeSystem. Element `AuditEvent.outcome.code` is part of an existing definition because parent element `AuditEvent.outcome` requires a cross-version extension.
+Element `AuditEvent.outcome.code` has a context of AuditEvent.outcome based on following the parent source element upwards and mapping to `AuditEvent`.</t>
   </si>
   <si>
     <t>Extension.extension:code.id</t>
@@ -387,6 +388,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.outcome.code</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -434,7 +438,8 @@
     <t>A human readable description of the error issue SHOULD be placed in details.text.</t>
   </si>
   <si>
-    <t>Element `AuditEvent.outcome.detail` is will have a context of AuditEvent.outcome based on following the parent source element upwards and mapping to `AuditEvent`.</t>
+    <t>Element `AuditEvent.outcome.detail` is part of an existing definition because parent element `AuditEvent.outcome` requires a cross-version extension.
+Element `AuditEvent.outcome.detail` has a context of AuditEvent.outcome based on following the parent source element upwards and mapping to `AuditEvent`.</t>
   </si>
   <si>
     <t>Extension.extension:detail.id</t>
@@ -444,6 +449,9 @@
   </si>
   <si>
     <t>Extension.extension:detail.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.outcome.detail</t>
   </si>
   <si>
     <t>Extension.extension:detail.value[x]</t>
@@ -800,7 +808,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="194.578125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="180.66015625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1610,7 +1618,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1652,7 +1660,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -1667,15 +1675,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1698,7 +1706,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>81</v>
@@ -1733,13 +1741,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -1757,7 +1765,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1769,21 +1777,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1808,16 +1816,16 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1886,7 +1894,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -1989,7 +1997,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2094,7 +2102,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2137,7 +2145,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2179,7 +2187,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -2194,15 +2202,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2225,16 +2233,16 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2284,7 +2292,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2296,18 +2304,18 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2389,7 +2397,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -2404,15 +2412,15 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2435,13 +2443,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2492,7 +2500,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2504,10 +2512,10 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-AuditEvent.outcome.xlsx
+++ b/StructureDefinition-ext-R5-AuditEvent.outcome.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="141">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -405,15 +405,6 @@
   <si>
     <t xml:space="preserve">Coding
 </t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>DICOM Audit Event Outcome</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-audit-event-outcome-for-R4</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -818,8 +809,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="24.32421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.46875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1741,31 +1732,31 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1777,7 +1768,7 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>120</v>
@@ -1785,13 +1776,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1816,16 +1807,16 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1894,7 +1885,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -1997,7 +1988,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2102,7 +2093,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2145,7 +2136,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2207,7 +2198,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>122</v>
@@ -2233,16 +2224,16 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2292,7 +2283,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2304,7 +2295,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>120</v>
@@ -2417,10 +2408,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2443,13 +2434,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2500,7 +2491,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2512,7 +2503,7 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>120</v>

--- a/StructureDefinition-ext-R5-AuditEvent.outcome.xlsx
+++ b/StructureDefinition-ext-R5-AuditEvent.outcome.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="145">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `AuditEvent.outcome` 0..1 `code`
 *  R4: `AuditEvent.outcome` 0..1 `code`
 Following are the generation technical comments:
-Element `AuditEvent.outcome` has is mapped to FHIR R4 element `AuditEvent.outcome`, but has no comparisons.</t>
+Element `AuditEvent.outcome` is mapped to FHIR R4 element `AuditEvent.outcome` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -340,8 +340,7 @@
     <t>Indicates whether the event succeeded or failed.</t>
   </si>
   <si>
-    <t>when a code is given there must be one code from the given codeSystem. Element `AuditEvent.outcome.code` is part of an existing definition because parent element `AuditEvent.outcome` requires a cross-version extension.
-Element `AuditEvent.outcome.code` has a context of AuditEvent.outcome based on following the parent source element upwards and mapping to `AuditEvent`.</t>
+    <t>when a code is given there must be one code from the given codeSystem. Element `AuditEvent.outcome.code` has a context of AuditEvent.outcome based on following the parent source element upwards and mapping to `AuditEvent`.</t>
   </si>
   <si>
     <t>Extension.extension:code.id</t>
@@ -388,9 +387,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.outcome.code</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -407,6 +403,15 @@
 </t>
   </si>
   <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>DICOM Audit Event Outcome</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/audit-event-outcome|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -429,8 +434,7 @@
     <t>A human readable description of the error issue SHOULD be placed in details.text.</t>
   </si>
   <si>
-    <t>Element `AuditEvent.outcome.detail` is part of an existing definition because parent element `AuditEvent.outcome` requires a cross-version extension.
-Element `AuditEvent.outcome.detail` has a context of AuditEvent.outcome based on following the parent source element upwards and mapping to `AuditEvent`.</t>
+    <t>Element `AuditEvent.outcome.detail` has a context of AuditEvent.outcome based on following the parent source element upwards and mapping to `AuditEvent`.</t>
   </si>
   <si>
     <t>Extension.extension:detail.id</t>
@@ -440,9 +444,6 @@
   </si>
   <si>
     <t>Extension.extension:detail.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.outcome.detail</t>
   </si>
   <si>
     <t>Extension.extension:detail.value[x]</t>
@@ -450,6 +451,15 @@
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A code that provides details as the exact issue.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-audit-event-outcome-detail-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>base64Binary
@@ -799,7 +809,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="180.66015625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="188.59375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -809,8 +819,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="38.22265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="75.93359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1609,72 +1619,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1697,7 +1707,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>81</v>
@@ -1732,13 +1742,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -1756,7 +1766,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1768,21 +1778,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1807,16 +1817,16 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1885,7 +1895,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -1988,7 +1998,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2093,7 +2103,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2136,7 +2146,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2178,30 +2188,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2224,16 +2234,16 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2259,13 +2269,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2283,7 +2293,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2295,18 +2305,18 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2388,30 +2398,30 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2434,13 +2444,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2491,7 +2501,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2503,10 +2513,10 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
